--- a/jpcore-r4/develop/ValueSet-jp-medication-code-hot7-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-hot7-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-hot7-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-hot7-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-hot7-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-hot7-vs.xlsx
@@ -236,10 +236,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-hot7-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-hot7-vs.xlsx
@@ -236,10 +236,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/jpcore-r4/develop/ValueSet-jp-medication-code-hot7-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-medication-code-hot7-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>
